--- a/input/concentrations/ds.5p/data.input.xlsx
+++ b/input/concentrations/ds.5p/data.input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\ds.5p\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\concentrations\ds.5p\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF34BA0-146B-4B49-983C-C6B5B677FED1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFB4FD8-DC47-454D-9C33-612D3D6E3268}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="stoich_coefficients" sheetId="1" r:id="rId1"/>
     <sheet name="concentrations" sheetId="2" r:id="rId2"/>
     <sheet name="k_constants_log10" sheetId="3" r:id="rId3"/>
-    <sheet name="particle_names" sheetId="6" r:id="rId4"/>
+    <sheet name="component_names" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/input/concentrations/ds.5p/data.input.xlsx
+++ b/input/concentrations/ds.5p/data.input.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\concentrations\ds.5p\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KEVreplica\input\concentrations\ds.5p\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFB4FD8-DC47-454D-9C33-612D3D6E3268}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="stoich_coefficients" sheetId="1" r:id="rId1"/>
-    <sheet name="concentrations" sheetId="2" r:id="rId2"/>
-    <sheet name="k_constants_log10" sheetId="3" r:id="rId3"/>
+    <sheet name="input_stoich_coefficients" sheetId="1" r:id="rId1"/>
+    <sheet name="input_concentrations" sheetId="2" r:id="rId2"/>
+    <sheet name="input_k_constants_log10" sheetId="3" r:id="rId3"/>
     <sheet name="component_names" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
@@ -915,10 +914,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1132,10 +1133,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1B650E-D590-4227-9821-42DD0DFAF960}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1366,11 +1369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5B1CF7-1204-48AB-9CBD-3B20E940BC0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,10 +1445,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D11D97-DC3D-468C-BFC1-901C7148BABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/input/concentrations/ds.5p/data.input.xlsx
+++ b/input/concentrations/ds.5p/data.input.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KEVreplica\input\concentrations\ds.5p\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\concentrations\ds.5p\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658164D3-39C0-4CAA-8436-D8E86CC948C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_stoich_coefficients" sheetId="1" r:id="rId1"/>
     <sheet name="input_concentrations" sheetId="2" r:id="rId2"/>
     <sheet name="input_k_constants_log10" sheetId="3" r:id="rId3"/>
-    <sheet name="component_names" sheetId="6" r:id="rId4"/>
+    <sheet name="component_name" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
@@ -914,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1133,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1369,10 +1370,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
@@ -1445,11 +1446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/concentrations/ds.5p/data.input.xlsx
+++ b/input/concentrations/ds.5p/data.input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\concentrations\ds.5p\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658164D3-39C0-4CAA-8436-D8E86CC948C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99497C52-8AA2-49D9-8DFA-0E41E9195236}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_stoich_coefficients" sheetId="1" r:id="rId1"/>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
